--- a/A002.xlsx
+++ b/A002.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elli Kraft\CODE\PyCharmProjects\KI_Case_Based_Reasoning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elli Kraft\CODE\PyCharmProjects\CaseBasedReasoning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6267ABE-08C4-442B-A36F-4B005D1C7607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E8D121-7671-4098-B338-01E7DB451EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15525" yWindow="15" windowWidth="13125" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15465" yWindow="60" windowWidth="13125" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A002" sheetId="1" r:id="rId1"/>
@@ -1169,18 +1169,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="71" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1344,13 +1344,13 @@
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -1362,19 +1362,19 @@
         <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>10</v>
@@ -1383,28 +1383,28 @@
         <v>20</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S3" s="1">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="T3" s="1">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="U3" s="1">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>51</v>
@@ -1415,46 +1415,46 @@
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>7</v>
@@ -1463,19 +1463,19 @@
         <v>7</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S4" s="1">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="T4" s="1">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="U4" s="1">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>51</v>
@@ -1485,91 +1485,91 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="2">
-        <v>560</v>
-      </c>
-      <c r="T5" s="2">
-        <v>241</v>
-      </c>
-      <c r="U5" s="2">
-        <v>90</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="1">
+        <v>570</v>
+      </c>
+      <c r="T5" s="1">
+        <v>201</v>
+      </c>
+      <c r="U5" s="1">
+        <v>85</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -1581,43 +1581,43 @@
         <v>7</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S6" s="1">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T6" s="1">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="U6" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>51</v>
@@ -1631,16 +1631,16 @@
         <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -1649,10 +1649,10 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>5</v>
@@ -1661,19 +1661,19 @@
         <v>9</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>7</v>
@@ -1682,13 +1682,13 @@
         <v>7</v>
       </c>
       <c r="S7" s="1">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="T7" s="1">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="U7" s="1">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>51</v>
@@ -1699,19 +1699,19 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>24</v>
@@ -1720,16 +1720,16 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>26</v>
@@ -1738,7 +1738,7 @@
         <v>20</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>7</v>
@@ -1747,19 +1747,19 @@
         <v>7</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S8" s="1">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="T8" s="1">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="U8" s="1">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>51</v>
@@ -1770,10 +1770,10 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>31</v>
@@ -1788,19 +1788,19 @@
         <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>26</v>
@@ -1809,7 +1809,7 @@
         <v>20</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>7</v>
@@ -1824,13 +1824,13 @@
         <v>7</v>
       </c>
       <c r="S9" s="1">
-        <v>720</v>
+        <v>650</v>
       </c>
       <c r="T9" s="1">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c r="U9" s="1">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>51</v>
@@ -1841,10 +1841,10 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>31</v>
@@ -1853,37 +1853,37 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>7</v>
@@ -1895,13 +1895,13 @@
         <v>7</v>
       </c>
       <c r="S10" s="1">
-        <v>650</v>
+        <v>570</v>
       </c>
       <c r="T10" s="1">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="U10" s="1">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>51</v>
@@ -1911,443 +1911,443 @@
       </c>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="1">
+        <v>590</v>
+      </c>
+      <c r="T11" s="1">
+        <v>201</v>
+      </c>
+      <c r="U11" s="1">
+        <v>85</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="1">
+        <v>650</v>
+      </c>
+      <c r="T12" s="1">
+        <v>241</v>
+      </c>
+      <c r="U12" s="1">
+        <v>92</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="1">
+        <v>640</v>
+      </c>
+      <c r="T13" s="1">
+        <v>241</v>
+      </c>
+      <c r="U13" s="1">
+        <v>96</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="1">
+        <v>600</v>
+      </c>
+      <c r="T14" s="1">
+        <v>221</v>
+      </c>
+      <c r="U14" s="1">
+        <v>100</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="J15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="1">
+        <v>590</v>
+      </c>
+      <c r="T15" s="1">
+        <v>201</v>
+      </c>
+      <c r="U15" s="1">
+        <v>89</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S11" s="5">
-        <v>210</v>
-      </c>
-      <c r="T11" s="5">
-        <v>50</v>
-      </c>
-      <c r="U11" s="5">
-        <v>21</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="W11" s="5" t="s">
+      <c r="L16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="1">
+        <v>650</v>
+      </c>
+      <c r="T16" s="1">
+        <v>211</v>
+      </c>
+      <c r="U16" s="1">
+        <v>95</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W16" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S12" s="5">
-        <v>260</v>
-      </c>
-      <c r="T12" s="5">
-        <v>50</v>
-      </c>
-      <c r="U12" s="5">
-        <v>27</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S13" s="5">
-        <v>300</v>
-      </c>
-      <c r="T13" s="5">
-        <v>50</v>
-      </c>
-      <c r="U13" s="5">
-        <v>31</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S14" s="5">
-        <v>250</v>
-      </c>
-      <c r="T14" s="5">
-        <v>100</v>
-      </c>
-      <c r="U14" s="5">
-        <v>36</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="W14" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S15" s="5">
-        <v>240</v>
-      </c>
-      <c r="T15" s="5">
-        <v>50</v>
-      </c>
-      <c r="U15" s="5">
-        <v>40</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="W15" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S16" s="3">
-        <v>270</v>
-      </c>
-      <c r="T16" s="3">
-        <v>50</v>
-      </c>
-      <c r="U16" s="3">
-        <v>39</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>24</v>
@@ -2356,22 +2356,22 @@
         <v>24</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>20</v>
@@ -2380,25 +2380,25 @@
         <v>21</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S17" s="1">
-        <v>650</v>
+        <v>570</v>
       </c>
       <c r="T17" s="1">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="U17" s="1">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>51</v>
@@ -2409,13 +2409,13 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>7</v>
@@ -2433,16 +2433,16 @@
         <v>7</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>20</v>
@@ -2451,7 +2451,7 @@
         <v>12</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>7</v>
@@ -2463,13 +2463,13 @@
         <v>7</v>
       </c>
       <c r="S18" s="1">
-        <v>740</v>
+        <v>560</v>
       </c>
       <c r="T18" s="1">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="U18" s="1">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>51</v>
@@ -2480,13 +2480,13 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>7</v>
@@ -2498,13 +2498,13 @@
         <v>24</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>7</v>
@@ -2519,10 +2519,10 @@
         <v>20</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>7</v>
@@ -2534,13 +2534,13 @@
         <v>7</v>
       </c>
       <c r="S19" s="1">
-        <v>710</v>
+        <v>580</v>
       </c>
       <c r="T19" s="1">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="U19" s="1">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>51</v>
@@ -2550,464 +2550,464 @@
       </c>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="1">
+        <v>700</v>
+      </c>
+      <c r="T20" s="1">
+        <v>231</v>
+      </c>
+      <c r="U20" s="1">
+        <v>116</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S21" s="1">
+        <v>650</v>
+      </c>
+      <c r="T21" s="1">
+        <v>241</v>
+      </c>
+      <c r="U21" s="1">
+        <v>112</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="1">
+        <v>570</v>
+      </c>
+      <c r="T22" s="1">
+        <v>251</v>
+      </c>
+      <c r="U22" s="1">
+        <v>105</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23" s="1">
+        <v>700</v>
+      </c>
+      <c r="T23" s="1">
+        <v>221</v>
+      </c>
+      <c r="U23" s="1">
+        <v>107</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S24" s="1">
+        <v>650</v>
+      </c>
+      <c r="T24" s="1">
+        <v>261</v>
+      </c>
+      <c r="U24" s="1">
+        <v>107</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S20" s="2">
-        <v>870</v>
-      </c>
-      <c r="T20" s="2">
-        <v>261</v>
-      </c>
-      <c r="U20" s="2">
-        <v>160</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="2" t="s">
+      <c r="L25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S21" s="2">
-        <v>780</v>
-      </c>
-      <c r="T21" s="2">
-        <v>291</v>
-      </c>
-      <c r="U21" s="2">
-        <v>190</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="5" t="s">
+      <c r="M25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" s="5" t="s">
+      <c r="N25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S22" s="5">
-        <v>280</v>
-      </c>
-      <c r="T22" s="5">
-        <v>50</v>
-      </c>
-      <c r="U22" s="5">
-        <v>22</v>
-      </c>
-      <c r="V22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="W22" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S23" s="5">
-        <v>210</v>
-      </c>
-      <c r="T23" s="5">
-        <v>50</v>
-      </c>
-      <c r="U23" s="5">
-        <v>23</v>
-      </c>
-      <c r="V23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="W23" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S24" s="3">
-        <v>260</v>
-      </c>
-      <c r="T24" s="3">
-        <v>50</v>
-      </c>
-      <c r="U24" s="3">
-        <v>39</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S25" s="2">
-        <v>550</v>
-      </c>
-      <c r="T25" s="2">
-        <v>171</v>
-      </c>
-      <c r="U25" s="2">
-        <v>81</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W25" s="2" t="s">
+      <c r="O25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25" s="1">
+        <v>740</v>
+      </c>
+      <c r="T25" s="1">
+        <v>221</v>
+      </c>
+      <c r="U25" s="1">
+        <v>104</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>26</v>
@@ -3016,10 +3016,10 @@
         <v>20</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>7</v>
@@ -3031,13 +3031,13 @@
         <v>7</v>
       </c>
       <c r="S26" s="1">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="T26" s="1">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="U26" s="1">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>51</v>
@@ -3048,13 +3048,13 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>7</v>
@@ -3072,13 +3072,13 @@
         <v>7</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>26</v>
@@ -3087,7 +3087,7 @@
         <v>20</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>7</v>
@@ -3102,13 +3102,13 @@
         <v>7</v>
       </c>
       <c r="S27" s="1">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="T27" s="1">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="U27" s="1">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>51</v>
@@ -3119,34 +3119,34 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>9</v>
@@ -3155,13 +3155,13 @@
         <v>10</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>7</v>
@@ -3173,13 +3173,13 @@
         <v>7</v>
       </c>
       <c r="S28" s="1">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="T28" s="1">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="U28" s="1">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>51</v>
@@ -3190,49 +3190,49 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>7</v>
@@ -3244,13 +3244,13 @@
         <v>7</v>
       </c>
       <c r="S29" s="1">
-        <v>600</v>
+        <v>740</v>
       </c>
       <c r="T29" s="1">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="U29" s="1">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>51</v>
@@ -3260,73 +3260,73 @@
       </c>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M30" s="2" t="s">
+      <c r="J30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S30" s="2">
-        <v>620</v>
-      </c>
-      <c r="T30" s="2">
-        <v>241</v>
-      </c>
-      <c r="U30" s="2">
-        <v>104</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="2" t="s">
+      <c r="O30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30" s="1">
+        <v>710</v>
+      </c>
+      <c r="T30" s="1">
+        <v>251</v>
+      </c>
+      <c r="U30" s="1">
+        <v>117</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W30" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3403,13 +3403,13 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>7</v>
@@ -3421,49 +3421,49 @@
         <v>24</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S32" s="1">
-        <v>510</v>
+        <v>700</v>
       </c>
       <c r="T32" s="1">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="U32" s="1">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>51</v>
@@ -3473,82 +3473,82 @@
       </c>
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="4" t="s">
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="N33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="4">
-        <v>530</v>
-      </c>
-      <c r="T33" s="4">
-        <v>181</v>
-      </c>
-      <c r="U33" s="4">
-        <v>76</v>
-      </c>
-      <c r="V33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="W33" s="4" t="s">
+      <c r="O33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S33" s="1">
+        <v>690</v>
+      </c>
+      <c r="T33" s="1">
+        <v>271</v>
+      </c>
+      <c r="U33" s="1">
+        <v>104</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W33" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>17</v>
@@ -3563,25 +3563,25 @@
         <v>24</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>41</v>
@@ -3599,13 +3599,13 @@
         <v>7</v>
       </c>
       <c r="S34" s="1">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T34" s="1">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="U34" s="1">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>51</v>
@@ -3615,156 +3615,156 @@
       </c>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L35" s="4" t="s">
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="4">
-        <v>560</v>
-      </c>
-      <c r="T35" s="4">
-        <v>231</v>
-      </c>
-      <c r="U35" s="4">
-        <v>84</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="W35" s="4" t="s">
+      <c r="N35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S35" s="1">
+        <v>760</v>
+      </c>
+      <c r="T35" s="1">
+        <v>301</v>
+      </c>
+      <c r="U35" s="1">
+        <v>117</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W35" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="A36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M36" s="2" t="s">
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S36" s="2">
-        <v>570</v>
-      </c>
-      <c r="T36" s="2">
-        <v>201</v>
-      </c>
-      <c r="U36" s="2">
-        <v>85</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W36" s="2" t="s">
+      <c r="N36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S36" s="1">
+        <v>720</v>
+      </c>
+      <c r="T36" s="1">
+        <v>450</v>
+      </c>
+      <c r="U36" s="1">
+        <v>117</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W36" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>7</v>
@@ -3776,31 +3776,31 @@
         <v>24</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="L37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="N37" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>7</v>
@@ -3812,13 +3812,13 @@
         <v>7</v>
       </c>
       <c r="S37" s="1">
-        <v>570</v>
+        <v>680</v>
       </c>
       <c r="T37" s="1">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="U37" s="1">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>51</v>
@@ -3828,366 +3828,366 @@
       </c>
     </row>
     <row r="38" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S38" s="2">
+        <v>550</v>
+      </c>
+      <c r="T38" s="2">
+        <v>171</v>
+      </c>
+      <c r="U38" s="2">
+        <v>81</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K38" s="1" t="s">
+      <c r="D39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S39" s="2">
+        <v>570</v>
+      </c>
+      <c r="T39" s="2">
+        <v>201</v>
+      </c>
+      <c r="U39" s="2">
+        <v>85</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S40" s="2">
+        <v>560</v>
+      </c>
+      <c r="T40" s="2">
+        <v>241</v>
+      </c>
+      <c r="U40" s="2">
+        <v>90</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S41" s="2">
+        <v>570</v>
+      </c>
+      <c r="T41" s="2">
+        <v>251</v>
+      </c>
+      <c r="U41" s="2">
+        <v>98</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M38" s="1" t="s">
+      <c r="L42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="N42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S38" s="1">
-        <v>550</v>
-      </c>
-      <c r="T38" s="1">
-        <v>151</v>
-      </c>
-      <c r="U38" s="1">
-        <v>90</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S39" s="1">
-        <v>590</v>
-      </c>
-      <c r="T39" s="1">
-        <v>201</v>
-      </c>
-      <c r="U39" s="1">
-        <v>89</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S40" s="1">
-        <v>650</v>
-      </c>
-      <c r="T40" s="1">
-        <v>211</v>
-      </c>
-      <c r="U40" s="1">
-        <v>95</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S41" s="1">
-        <v>570</v>
-      </c>
-      <c r="T41" s="1">
-        <v>231</v>
-      </c>
-      <c r="U41" s="1">
-        <v>95</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S42" s="1">
-        <v>560</v>
-      </c>
-      <c r="T42" s="1">
-        <v>151</v>
-      </c>
-      <c r="U42" s="1">
-        <v>97</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W42" s="1" t="s">
+      <c r="O42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S42" s="2">
+        <v>620</v>
+      </c>
+      <c r="T42" s="2">
+        <v>241</v>
+      </c>
+      <c r="U42" s="2">
+        <v>104</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W42" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
@@ -4196,25 +4196,25 @@
         <v>5</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>26</v>
@@ -4223,7 +4223,7 @@
         <v>20</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>5</v>
@@ -4238,13 +4238,13 @@
         <v>7</v>
       </c>
       <c r="S43" s="2">
-        <v>570</v>
+        <v>740</v>
       </c>
       <c r="T43" s="2">
         <v>251</v>
       </c>
       <c r="U43" s="2">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="V43" s="2" t="s">
         <v>13</v>
@@ -4254,784 +4254,784 @@
       </c>
     </row>
     <row r="44" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="A44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S44" s="2">
+        <v>750</v>
+      </c>
+      <c r="T44" s="2">
+        <v>251</v>
+      </c>
+      <c r="U44" s="2">
+        <v>118</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S45" s="2">
+        <v>870</v>
+      </c>
+      <c r="T45" s="2">
+        <v>261</v>
+      </c>
+      <c r="U45" s="2">
+        <v>160</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S46" s="2">
+        <v>780</v>
+      </c>
+      <c r="T46" s="2">
+        <v>291</v>
+      </c>
+      <c r="U46" s="2">
+        <v>190</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="1" t="s">
+      <c r="D47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S47" s="2">
+        <v>770</v>
+      </c>
+      <c r="T47" s="2">
+        <v>350</v>
+      </c>
+      <c r="U47" s="2">
+        <v>210</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S48" s="3">
+        <v>270</v>
+      </c>
+      <c r="T48" s="3">
+        <v>50</v>
+      </c>
+      <c r="U48" s="3">
+        <v>39</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S49" s="3">
+        <v>260</v>
+      </c>
+      <c r="T49" s="3">
+        <v>50</v>
+      </c>
+      <c r="U49" s="3">
+        <v>39</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S50" s="3">
+        <v>270</v>
+      </c>
+      <c r="T50" s="3">
+        <v>60</v>
+      </c>
+      <c r="U50" s="3">
+        <v>36</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W50" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S51" s="4">
+        <v>530</v>
+      </c>
+      <c r="T51" s="4">
+        <v>181</v>
+      </c>
+      <c r="U51" s="4">
+        <v>76</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W51" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="4">
+        <v>560</v>
+      </c>
+      <c r="T52" s="4">
+        <v>231</v>
+      </c>
+      <c r="U52" s="4">
+        <v>84</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M53" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N53" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S44" s="1">
-        <v>570</v>
-      </c>
-      <c r="T44" s="1">
-        <v>251</v>
-      </c>
-      <c r="U44" s="1">
-        <v>105</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W44" s="1" t="s">
+      <c r="O53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S53" s="5">
+        <v>210</v>
+      </c>
+      <c r="T53" s="5">
+        <v>50</v>
+      </c>
+      <c r="U53" s="5">
+        <v>21</v>
+      </c>
+      <c r="V53" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W53" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="1" t="s">
+    <row r="54" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M45" s="1" t="s">
+      <c r="L54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M54" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S45" s="1">
-        <v>700</v>
-      </c>
-      <c r="T45" s="1">
-        <v>221</v>
-      </c>
-      <c r="U45" s="1">
-        <v>107</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W45" s="1" t="s">
+      <c r="N54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S54" s="5">
+        <v>260</v>
+      </c>
+      <c r="T54" s="5">
+        <v>50</v>
+      </c>
+      <c r="U54" s="5">
+        <v>27</v>
+      </c>
+      <c r="V54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W54" s="5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S46" s="1">
-        <v>650</v>
-      </c>
-      <c r="T46" s="1">
-        <v>261</v>
-      </c>
-      <c r="U46" s="1">
-        <v>107</v>
-      </c>
-      <c r="V46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S47" s="1">
-        <v>700</v>
-      </c>
-      <c r="T47" s="1">
-        <v>241</v>
-      </c>
-      <c r="U47" s="1">
-        <v>101</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S48" s="1">
-        <v>690</v>
-      </c>
-      <c r="T48" s="1">
-        <v>271</v>
-      </c>
-      <c r="U48" s="1">
-        <v>104</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S49" s="1">
-        <v>700</v>
-      </c>
-      <c r="T49" s="1">
-        <v>231</v>
-      </c>
-      <c r="U49" s="1">
-        <v>105</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W49" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S50" s="2">
-        <v>740</v>
-      </c>
-      <c r="T50" s="2">
-        <v>251</v>
-      </c>
-      <c r="U50" s="2">
-        <v>107</v>
-      </c>
-      <c r="V50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S51" s="1">
-        <v>760</v>
-      </c>
-      <c r="T51" s="1">
-        <v>301</v>
-      </c>
-      <c r="U51" s="1">
-        <v>117</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W51" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S52" s="1">
-        <v>720</v>
-      </c>
-      <c r="T52" s="1">
-        <v>450</v>
-      </c>
-      <c r="U52" s="1">
-        <v>117</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W52" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S53" s="2">
-        <v>750</v>
-      </c>
-      <c r="T53" s="2">
-        <v>251</v>
-      </c>
-      <c r="U53" s="2">
-        <v>118</v>
-      </c>
-      <c r="V53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S54" s="2">
-        <v>770</v>
-      </c>
-      <c r="T54" s="2">
-        <v>350</v>
-      </c>
-      <c r="U54" s="2">
-        <v>210</v>
-      </c>
-      <c r="V54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5039,16 +5039,16 @@
         <v>61</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>6</v>
@@ -5060,10 +5060,10 @@
         <v>7</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>9</v>
@@ -5075,7 +5075,7 @@
         <v>20</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="O55" s="5" t="s">
         <v>5</v>
@@ -5084,19 +5084,19 @@
         <v>7</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R55" s="5" t="s">
         <v>7</v>
       </c>
       <c r="S55" s="5">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="T55" s="5">
         <v>50</v>
       </c>
       <c r="U55" s="5">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="V55" s="5" t="s">
         <v>62</v>
@@ -5113,31 +5113,31 @@
         <v>45</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>10</v>
@@ -5146,7 +5146,7 @@
         <v>20</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="O56" s="5" t="s">
         <v>5</v>
@@ -5155,7 +5155,7 @@
         <v>7</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R56" s="5" t="s">
         <v>7</v>
@@ -5164,10 +5164,10 @@
         <v>250</v>
       </c>
       <c r="T56" s="5">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="U56" s="5">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="V56" s="5" t="s">
         <v>62</v>
@@ -5184,25 +5184,25 @@
         <v>48</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>7</v>
@@ -5217,7 +5217,7 @@
         <v>20</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="O57" s="5" t="s">
         <v>7</v>
@@ -5232,13 +5232,13 @@
         <v>7</v>
       </c>
       <c r="S57" s="5">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="T57" s="5">
         <v>50</v>
       </c>
       <c r="U57" s="5">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="V57" s="5" t="s">
         <v>62</v>
@@ -5252,13 +5252,13 @@
         <v>61</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>24</v>
@@ -5267,16 +5267,16 @@
         <v>18</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>9</v>
@@ -5288,10 +5288,10 @@
         <v>20</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>7</v>
@@ -5303,13 +5303,13 @@
         <v>7</v>
       </c>
       <c r="S58" s="5">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="T58" s="5">
         <v>50</v>
       </c>
       <c r="U58" s="5">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="V58" s="5" t="s">
         <v>62</v>
@@ -5323,34 +5323,34 @@
         <v>61</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="L59" s="5" t="s">
         <v>10</v>
@@ -5362,25 +5362,25 @@
         <v>12</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P59" s="5" t="s">
         <v>7</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R59" s="5" t="s">
         <v>7</v>
       </c>
       <c r="S59" s="5">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="T59" s="5">
         <v>50</v>
       </c>
       <c r="U59" s="5">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="V59" s="5" t="s">
         <v>62</v>
@@ -5394,22 +5394,22 @@
         <v>61</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>7</v>
@@ -5421,7 +5421,7 @@
         <v>5</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>10</v>
@@ -5430,7 +5430,7 @@
         <v>20</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="O60" s="5" t="s">
         <v>5</v>
@@ -5439,19 +5439,19 @@
         <v>7</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R60" s="5" t="s">
         <v>7</v>
       </c>
       <c r="S60" s="5">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="T60" s="5">
         <v>50</v>
       </c>
       <c r="U60" s="5">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="V60" s="5" t="s">
         <v>62</v>
@@ -5465,28 +5465,28 @@
         <v>61</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>5</v>
@@ -5501,7 +5501,7 @@
         <v>20</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O61" s="5" t="s">
         <v>5</v>
@@ -5516,13 +5516,13 @@
         <v>7</v>
       </c>
       <c r="S61" s="5">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="T61" s="5">
         <v>80</v>
       </c>
       <c r="U61" s="5">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="V61" s="5" t="s">
         <v>62</v>
@@ -5532,357 +5532,357 @@
       </c>
     </row>
     <row r="62" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="A62" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3" t="s">
+      <c r="D62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S62" s="5">
+        <v>300</v>
+      </c>
+      <c r="T62" s="5">
         <v>50</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="U62" s="5">
+        <v>26</v>
+      </c>
+      <c r="V62" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W62" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L63" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="M63" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="N63" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S63" s="5">
+        <v>250</v>
+      </c>
+      <c r="T63" s="5">
+        <v>50</v>
+      </c>
+      <c r="U63" s="5">
+        <v>27</v>
+      </c>
+      <c r="V63" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W63" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S62" s="3">
-        <v>270</v>
-      </c>
-      <c r="T62" s="3">
-        <v>60</v>
-      </c>
-      <c r="U62" s="3">
-        <v>36</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K63" s="1" t="s">
+      <c r="O64" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S64" s="5">
+        <v>260</v>
+      </c>
+      <c r="T64" s="5">
+        <v>50</v>
+      </c>
+      <c r="U64" s="5">
+        <v>33</v>
+      </c>
+      <c r="V64" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W64" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S65" s="5">
+        <v>250</v>
+      </c>
+      <c r="T65" s="5">
+        <v>50</v>
+      </c>
+      <c r="U65" s="5">
+        <v>39</v>
+      </c>
+      <c r="V65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W65" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L63" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M63" s="1" t="s">
+      <c r="L66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S63" s="1">
-        <v>580</v>
-      </c>
-      <c r="T63" s="1">
-        <v>201</v>
-      </c>
-      <c r="U63" s="1">
-        <v>93</v>
-      </c>
-      <c r="V63" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W63" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S64" s="1">
-        <v>740</v>
-      </c>
-      <c r="T64" s="1">
-        <v>221</v>
-      </c>
-      <c r="U64" s="1">
-        <v>104</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W64" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S65" s="1">
-        <v>640</v>
-      </c>
-      <c r="T65" s="1">
-        <v>211</v>
-      </c>
-      <c r="U65" s="1">
-        <v>107</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W65" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N66" s="1" t="s">
+      <c r="N66" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S66" s="1">
-        <v>680</v>
-      </c>
-      <c r="T66" s="1">
-        <v>231</v>
-      </c>
-      <c r="U66" s="1">
-        <v>101</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W66" s="1" t="s">
+      <c r="O66" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S66" s="5">
+        <v>290</v>
+      </c>
+      <c r="T66" s="5">
+        <v>80</v>
+      </c>
+      <c r="U66" s="5">
+        <v>39</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W66" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
   </sheetData>
   <autoFilter ref="A1:W1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W68">
-      <sortCondition ref="C1"/>
+      <sortCondition ref="V1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
